--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.287928333333332</v>
+        <v>3.659315333333333</v>
       </c>
       <c r="N2">
-        <v>15.863785</v>
+        <v>10.977946</v>
       </c>
       <c r="O2">
-        <v>0.08596514992568144</v>
+        <v>0.0620085790290857</v>
       </c>
       <c r="P2">
-        <v>0.08596514992568145</v>
+        <v>0.06200857902908569</v>
       </c>
       <c r="Q2">
-        <v>272.8125600170055</v>
+        <v>200.1448921111345</v>
       </c>
       <c r="R2">
-        <v>2455.31304015305</v>
+        <v>1801.30402900021</v>
       </c>
       <c r="S2">
-        <v>0.02270554995373049</v>
+        <v>0.01730612574120721</v>
       </c>
       <c r="T2">
-        <v>0.0227055499537305</v>
+        <v>0.01730612574120721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>117.566815</v>
       </c>
       <c r="O3">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745802</v>
       </c>
       <c r="P3">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745801</v>
       </c>
       <c r="Q3">
-        <v>2021.819116509439</v>
+        <v>2143.424416919586</v>
       </c>
       <c r="R3">
-        <v>18196.37204858495</v>
+        <v>19290.81975227627</v>
       </c>
       <c r="S3">
-        <v>0.1682712663392432</v>
+        <v>0.1853375926045952</v>
       </c>
       <c r="T3">
-        <v>0.1682712663392432</v>
+        <v>0.1853375926045952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.968127</v>
+        <v>8.954598666666667</v>
       </c>
       <c r="N4">
-        <v>32.904381</v>
+        <v>26.863796</v>
       </c>
       <c r="O4">
-        <v>0.1783073866594097</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="P4">
-        <v>0.1783073866594098</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="Q4">
-        <v>565.8629650102367</v>
+        <v>489.7684459474956</v>
       </c>
       <c r="R4">
-        <v>5092.766685092131</v>
+        <v>4407.916013527461</v>
       </c>
       <c r="S4">
-        <v>0.04709544831148939</v>
+        <v>0.04234929115721094</v>
       </c>
       <c r="T4">
-        <v>0.04709544831148939</v>
+        <v>0.04234929115721094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.067472</v>
+        <v>7.210197000000001</v>
       </c>
       <c r="N5">
-        <v>18.202416</v>
+        <v>21.630591</v>
       </c>
       <c r="O5">
-        <v>0.09863808797519777</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="P5">
-        <v>0.09863808797519778</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="Q5">
-        <v>313.0304468608533</v>
+        <v>394.3590451251151</v>
       </c>
       <c r="R5">
-        <v>2817.27402174768</v>
+        <v>3549.231406126036</v>
       </c>
       <c r="S5">
-        <v>0.02605279041329564</v>
+        <v>0.03409943241683144</v>
       </c>
       <c r="T5">
-        <v>0.02605279041329565</v>
+        <v>0.03409943241683143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.287928333333332</v>
+        <v>3.659315333333333</v>
       </c>
       <c r="N6">
-        <v>15.863785</v>
+        <v>10.977946</v>
       </c>
       <c r="O6">
-        <v>0.08596514992568144</v>
+        <v>0.0620085790290857</v>
       </c>
       <c r="P6">
-        <v>0.08596514992568145</v>
+        <v>0.06200857902908569</v>
       </c>
       <c r="Q6">
-        <v>102.1688741440111</v>
+        <v>70.70219265035112</v>
       </c>
       <c r="R6">
-        <v>919.5198672960998</v>
+        <v>636.3197338531601</v>
       </c>
       <c r="S6">
-        <v>0.008503275932195516</v>
+        <v>0.006113476208559021</v>
       </c>
       <c r="T6">
-        <v>0.008503275932195516</v>
+        <v>0.00611347620855902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>117.566815</v>
       </c>
       <c r="O7">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745802</v>
       </c>
       <c r="P7">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745801</v>
       </c>
       <c r="Q7">
-        <v>757.1754865088777</v>
+        <v>757.175486508878</v>
       </c>
       <c r="R7">
-        <v>6814.5793785799</v>
+        <v>6814.579378579901</v>
       </c>
       <c r="S7">
-        <v>0.0630179410786507</v>
+        <v>0.06547143941303409</v>
       </c>
       <c r="T7">
-        <v>0.0630179410786507</v>
+        <v>0.06547143941303407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.968127</v>
+        <v>8.954598666666667</v>
       </c>
       <c r="N8">
-        <v>32.904381</v>
+        <v>26.863796</v>
       </c>
       <c r="O8">
-        <v>0.1783073866594097</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="P8">
-        <v>0.1783073866594098</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="Q8">
-        <v>211.9168635464733</v>
+        <v>173.013173877129</v>
       </c>
       <c r="R8">
-        <v>1907.25177191826</v>
+        <v>1557.11856489416</v>
       </c>
       <c r="S8">
-        <v>0.01763734386346584</v>
+        <v>0.01496010070714349</v>
       </c>
       <c r="T8">
-        <v>0.01763734386346584</v>
+        <v>0.01496010070714349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.067472</v>
+        <v>7.210197000000001</v>
       </c>
       <c r="N9">
-        <v>18.202416</v>
+        <v>21.630591</v>
       </c>
       <c r="O9">
-        <v>0.09863808797519777</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="P9">
-        <v>0.09863808797519778</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="Q9">
-        <v>117.2305568577066</v>
+        <v>139.3093218005401</v>
       </c>
       <c r="R9">
-        <v>1055.07501171936</v>
+        <v>1253.78389620486</v>
       </c>
       <c r="S9">
-        <v>0.009756824482972416</v>
+        <v>0.01204579649558951</v>
       </c>
       <c r="T9">
-        <v>0.009756824482972418</v>
+        <v>0.01204579649558951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.287928333333332</v>
+        <v>3.659315333333333</v>
       </c>
       <c r="N10">
-        <v>15.863785</v>
+        <v>10.977946</v>
       </c>
       <c r="O10">
-        <v>0.08596514992568144</v>
+        <v>0.0620085790290857</v>
       </c>
       <c r="P10">
-        <v>0.08596514992568145</v>
+        <v>0.06200857902908569</v>
       </c>
       <c r="Q10">
-        <v>63.69264730109166</v>
+        <v>40.33926030774267</v>
       </c>
       <c r="R10">
-        <v>573.2338257098249</v>
+        <v>363.053342769684</v>
       </c>
       <c r="S10">
-        <v>0.005300989752415095</v>
+        <v>0.003488054597993141</v>
       </c>
       <c r="T10">
-        <v>0.005300989752415096</v>
+        <v>0.00348805459799314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>117.566815</v>
       </c>
       <c r="O11">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745802</v>
       </c>
       <c r="P11">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745801</v>
       </c>
       <c r="Q11">
-        <v>472.0274311652417</v>
+        <v>432.0078049060567</v>
       </c>
       <c r="R11">
-        <v>4248.246880487175</v>
+        <v>3888.07024415451</v>
       </c>
       <c r="S11">
-        <v>0.03928573676074666</v>
+        <v>0.03735484485277655</v>
       </c>
       <c r="T11">
-        <v>0.03928573676074666</v>
+        <v>0.03735484485277654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.968127</v>
+        <v>8.954598666666667</v>
       </c>
       <c r="N12">
-        <v>32.904381</v>
+        <v>26.863796</v>
       </c>
       <c r="O12">
-        <v>0.1783073866594097</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="P12">
-        <v>0.1783073866594098</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="Q12">
-        <v>132.110157424205</v>
+        <v>98.71297050450934</v>
       </c>
       <c r="R12">
-        <v>1188.991416817845</v>
+        <v>888.416734540584</v>
       </c>
       <c r="S12">
-        <v>0.01099521876340117</v>
+        <v>0.008535511757604725</v>
       </c>
       <c r="T12">
-        <v>0.01099521876340117</v>
+        <v>0.008535511757604721</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.067472</v>
+        <v>7.210197000000001</v>
       </c>
       <c r="N13">
-        <v>18.202416</v>
+        <v>21.630591</v>
       </c>
       <c r="O13">
-        <v>0.09863808797519777</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="P13">
-        <v>0.09863808797519778</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="Q13">
-        <v>73.08218450488</v>
+        <v>79.48317845244601</v>
       </c>
       <c r="R13">
-        <v>657.73966054392</v>
+        <v>715.348606072014</v>
       </c>
       <c r="S13">
-        <v>0.006082458926743937</v>
+        <v>0.006872750366494703</v>
       </c>
       <c r="T13">
-        <v>0.006082458926743938</v>
+        <v>0.006872750366494701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.287928333333332</v>
+        <v>3.659315333333333</v>
       </c>
       <c r="N14">
-        <v>15.863785</v>
+        <v>10.977946</v>
       </c>
       <c r="O14">
-        <v>0.08596514992568144</v>
+        <v>0.0620085790290857</v>
       </c>
       <c r="P14">
-        <v>0.08596514992568145</v>
+        <v>0.06200857902908569</v>
       </c>
       <c r="Q14">
-        <v>594.2175538985076</v>
+        <v>405.941251559189</v>
       </c>
       <c r="R14">
-        <v>5347.957985086569</v>
+        <v>3653.471264032702</v>
       </c>
       <c r="S14">
-        <v>0.04945533428734034</v>
+        <v>0.03510092248132633</v>
       </c>
       <c r="T14">
-        <v>0.04945533428734034</v>
+        <v>0.03510092248132633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>117.566815</v>
       </c>
       <c r="O15">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745802</v>
       </c>
       <c r="P15">
-        <v>0.637089375439711</v>
+        <v>0.6640724174745801</v>
       </c>
       <c r="Q15">
-        <v>4403.757692690514</v>
+        <v>4347.372452271822</v>
       </c>
       <c r="R15">
-        <v>39633.81923421463</v>
+        <v>39126.3520704464</v>
       </c>
       <c r="S15">
-        <v>0.3665144312610704</v>
+        <v>0.3759085406041743</v>
       </c>
       <c r="T15">
-        <v>0.3665144312610704</v>
+        <v>0.3759085406041743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.968127</v>
+        <v>8.954598666666667</v>
       </c>
       <c r="N16">
-        <v>32.904381</v>
+        <v>26.863796</v>
       </c>
       <c r="O16">
-        <v>0.1783073866594097</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="P16">
-        <v>0.1783073866594098</v>
+        <v>0.1517392977964399</v>
       </c>
       <c r="Q16">
-        <v>1232.515493015351</v>
+        <v>993.3664248185169</v>
       </c>
       <c r="R16">
-        <v>11092.63943713816</v>
+        <v>8940.297823366651</v>
       </c>
       <c r="S16">
-        <v>0.1025793757210533</v>
+        <v>0.08589439417448078</v>
       </c>
       <c r="T16">
-        <v>0.1025793757210534</v>
+        <v>0.08589439417448076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.067472</v>
+        <v>7.210197000000001</v>
       </c>
       <c r="N17">
-        <v>18.202416</v>
+        <v>21.630591</v>
       </c>
       <c r="O17">
-        <v>0.09863808797519777</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="P17">
-        <v>0.09863808797519778</v>
+        <v>0.1221797056998941</v>
       </c>
       <c r="Q17">
-        <v>681.8167991159145</v>
+        <v>799.853559354813</v>
       </c>
       <c r="R17">
-        <v>6136.351192043231</v>
+        <v>7198.682034193317</v>
       </c>
       <c r="S17">
-        <v>0.05674601415218578</v>
+        <v>0.06916172642097848</v>
       </c>
       <c r="T17">
-        <v>0.05674601415218578</v>
+        <v>0.06916172642097848</v>
       </c>
     </row>
   </sheetData>
